--- a/public/templates/student-group.xlsx
+++ b/public/templates/student-group.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/minhlh.st/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5773BB2-3E06-934C-9C53-D3FCCDD7696A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0CD853D-1A01-9F46-8CA5-0968C7E9D3DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6260,7 +6260,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z366"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="O1" sqref="A1:XFD5"/>
     </sheetView>
   </sheetViews>
